--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ly9-Ly9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ly9-Ly9.xlsx
@@ -76,10 +76,10 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>39.72965933333333</v>
+        <v>0.1889033333333333</v>
       </c>
       <c r="H2">
-        <v>119.188978</v>
+        <v>0.56671</v>
       </c>
       <c r="I2">
-        <v>0.3974718505964168</v>
+        <v>0.002312243868020738</v>
       </c>
       <c r="J2">
-        <v>0.3974718505964168</v>
+        <v>0.002312243868020738</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>39.72965933333333</v>
+        <v>0.1889033333333333</v>
       </c>
       <c r="N2">
-        <v>119.188978</v>
+        <v>0.56671</v>
       </c>
       <c r="O2">
-        <v>0.3974718505964168</v>
+        <v>0.002312243868020738</v>
       </c>
       <c r="P2">
-        <v>0.3974718505964168</v>
+        <v>0.002312243868020738</v>
       </c>
       <c r="Q2">
-        <v>1578.44583074272</v>
+        <v>0.03568446934444445</v>
       </c>
       <c r="R2">
-        <v>14206.01247668448</v>
+        <v>0.3211602241000001</v>
       </c>
       <c r="S2">
-        <v>0.1579838720165403</v>
+        <v>5.346471705199504E-06</v>
       </c>
       <c r="T2">
-        <v>0.1579838720165403</v>
+        <v>5.346471705199506E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>39.72965933333333</v>
+        <v>0.1889033333333333</v>
       </c>
       <c r="H3">
-        <v>119.188978</v>
+        <v>0.56671</v>
       </c>
       <c r="I3">
-        <v>0.3974718505964168</v>
+        <v>0.002312243868020738</v>
       </c>
       <c r="J3">
-        <v>0.3974718505964168</v>
+        <v>0.002312243868020738</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.01585733333333333</v>
+        <v>29.49604666666667</v>
       </c>
       <c r="N3">
-        <v>0.047572</v>
+        <v>88.48814</v>
       </c>
       <c r="O3">
-        <v>0.0001586432839165107</v>
+        <v>0.3610420834422555</v>
       </c>
       <c r="P3">
-        <v>0.0001586432839165107</v>
+        <v>0.3610420834422555</v>
       </c>
       <c r="Q3">
-        <v>0.6300064512684445</v>
+        <v>5.571901535488889</v>
       </c>
       <c r="R3">
-        <v>5.670058061416</v>
+        <v>50.1471138194</v>
       </c>
       <c r="S3">
-        <v>6.305623964298826E-05</v>
+        <v>0.0008348173435367869</v>
       </c>
       <c r="T3">
-        <v>6.305623964298826E-05</v>
+        <v>0.0008348173435367871</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>39.72965933333333</v>
+        <v>0.1889033333333333</v>
       </c>
       <c r="H4">
-        <v>119.188978</v>
+        <v>0.56671</v>
       </c>
       <c r="I4">
-        <v>0.3974718505964168</v>
+        <v>0.002312243868020738</v>
       </c>
       <c r="J4">
-        <v>0.3974718505964168</v>
+        <v>0.002312243868020738</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.570003</v>
+        <v>12.64967133333333</v>
       </c>
       <c r="N4">
-        <v>34.710009</v>
+        <v>37.949014</v>
       </c>
       <c r="O4">
-        <v>0.1157510681184655</v>
+        <v>0.1548364682446633</v>
       </c>
       <c r="P4">
-        <v>0.1157510681184655</v>
+        <v>0.1548364682446633</v>
       </c>
       <c r="Q4">
-        <v>459.6722776756446</v>
+        <v>2.389565080437777</v>
       </c>
       <c r="R4">
-        <v>4137.050499080801</v>
+        <v>21.50608572394</v>
       </c>
       <c r="S4">
-        <v>0.04600779125355837</v>
+        <v>0.0003580196742447104</v>
       </c>
       <c r="T4">
-        <v>0.04600779125355838</v>
+        <v>0.0003580196742447106</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>39.72965933333333</v>
+        <v>0.1889033333333333</v>
       </c>
       <c r="H5">
-        <v>119.188978</v>
+        <v>0.56671</v>
       </c>
       <c r="I5">
-        <v>0.3974718505964168</v>
+        <v>0.002312243868020738</v>
       </c>
       <c r="J5">
-        <v>0.3974718505964168</v>
+        <v>0.002312243868020738</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>48.64038733333334</v>
+        <v>39.36235533333333</v>
       </c>
       <c r="N5">
-        <v>145.921162</v>
+        <v>118.087066</v>
       </c>
       <c r="O5">
-        <v>0.4866184380012012</v>
+        <v>0.4818092044450604</v>
       </c>
       <c r="P5">
-        <v>0.4866184380012013</v>
+        <v>0.4818092044450604</v>
       </c>
       <c r="Q5">
-        <v>1932.466018594715</v>
+        <v>7.435680130317778</v>
       </c>
       <c r="R5">
-        <v>17392.19416735243</v>
+        <v>66.92112117286</v>
       </c>
       <c r="S5">
-        <v>0.1934171310866752</v>
+        <v>0.001114060378534041</v>
       </c>
       <c r="T5">
-        <v>0.1934171310866752</v>
+        <v>0.001114060378534041</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>29.49604666666667</v>
+      </c>
+      <c r="H6">
+        <v>88.48814</v>
+      </c>
+      <c r="I6">
+        <v>0.3610420834422555</v>
+      </c>
+      <c r="J6">
+        <v>0.3610420834422555</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G6">
-        <v>0.01585733333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.047572</v>
-      </c>
-      <c r="I6">
-        <v>0.0001586432839165107</v>
-      </c>
-      <c r="J6">
-        <v>0.0001586432839165107</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>39.72965933333333</v>
+        <v>0.1889033333333333</v>
       </c>
       <c r="N6">
-        <v>119.188978</v>
+        <v>0.56671</v>
       </c>
       <c r="O6">
-        <v>0.3974718505964168</v>
+        <v>0.002312243868020738</v>
       </c>
       <c r="P6">
-        <v>0.3974718505964168</v>
+        <v>0.002312243868020738</v>
       </c>
       <c r="Q6">
-        <v>0.6300064512684445</v>
+        <v>5.571901535488889</v>
       </c>
       <c r="R6">
-        <v>5.670058061416</v>
+        <v>50.1471138194</v>
       </c>
       <c r="S6">
-        <v>6.305623964298826E-05</v>
+        <v>0.0008348173435367869</v>
       </c>
       <c r="T6">
-        <v>6.305623964298826E-05</v>
+        <v>0.0008348173435367871</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.01585733333333333</v>
+        <v>29.49604666666667</v>
       </c>
       <c r="H7">
-        <v>0.047572</v>
+        <v>88.48814</v>
       </c>
       <c r="I7">
-        <v>0.0001586432839165107</v>
+        <v>0.3610420834422555</v>
       </c>
       <c r="J7">
-        <v>0.0001586432839165107</v>
+        <v>0.3610420834422555</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.01585733333333333</v>
+        <v>29.49604666666667</v>
       </c>
       <c r="N7">
-        <v>0.047572</v>
+        <v>88.48814</v>
       </c>
       <c r="O7">
-        <v>0.0001586432839165107</v>
+        <v>0.3610420834422555</v>
       </c>
       <c r="P7">
-        <v>0.0001586432839165107</v>
+        <v>0.3610420834422555</v>
       </c>
       <c r="Q7">
-        <v>0.0002514550204444445</v>
+        <v>870.0167689621778</v>
       </c>
       <c r="R7">
-        <v>0.002263095184</v>
+        <v>7830.1509206596</v>
       </c>
       <c r="S7">
-        <v>2.516769153181461E-08</v>
+        <v>0.1303513860163246</v>
       </c>
       <c r="T7">
-        <v>2.516769153181461E-08</v>
+        <v>0.1303513860163246</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.01585733333333333</v>
+        <v>29.49604666666667</v>
       </c>
       <c r="H8">
-        <v>0.047572</v>
+        <v>88.48814</v>
       </c>
       <c r="I8">
-        <v>0.0001586432839165107</v>
+        <v>0.3610420834422555</v>
       </c>
       <c r="J8">
-        <v>0.0001586432839165107</v>
+        <v>0.3610420834422555</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.570003</v>
+        <v>12.64967133333333</v>
       </c>
       <c r="N8">
-        <v>34.710009</v>
+        <v>37.949014</v>
       </c>
       <c r="O8">
-        <v>0.1157510681184655</v>
+        <v>0.1548364682446633</v>
       </c>
       <c r="P8">
-        <v>0.1157510681184655</v>
+        <v>0.1548364682446633</v>
       </c>
       <c r="Q8">
-        <v>0.1834693942386667</v>
+        <v>373.1152959659955</v>
       </c>
       <c r="R8">
-        <v>1.651224548148</v>
+        <v>3358.03766369396</v>
       </c>
       <c r="S8">
-        <v>1.836312956315708E-05</v>
+        <v>0.05590248108789386</v>
       </c>
       <c r="T8">
-        <v>1.836312956315708E-05</v>
+        <v>0.05590248108789388</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.01585733333333333</v>
+        <v>29.49604666666667</v>
       </c>
       <c r="H9">
-        <v>0.047572</v>
+        <v>88.48814</v>
       </c>
       <c r="I9">
-        <v>0.0001586432839165107</v>
+        <v>0.3610420834422555</v>
       </c>
       <c r="J9">
-        <v>0.0001586432839165107</v>
+        <v>0.3610420834422555</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>48.64038733333334</v>
+        <v>39.36235533333333</v>
       </c>
       <c r="N9">
-        <v>145.921162</v>
+        <v>118.087066</v>
       </c>
       <c r="O9">
-        <v>0.4866184380012012</v>
+        <v>0.4818092044450604</v>
       </c>
       <c r="P9">
-        <v>0.4866184380012013</v>
+        <v>0.4818092044450604</v>
       </c>
       <c r="Q9">
-        <v>0.7713068354071112</v>
+        <v>1161.033869821916</v>
       </c>
       <c r="R9">
-        <v>6.941761518664001</v>
+        <v>10449.30482839724</v>
       </c>
       <c r="S9">
-        <v>7.719874701883351E-05</v>
+        <v>0.1739533989945002</v>
       </c>
       <c r="T9">
-        <v>7.719874701883353E-05</v>
+        <v>0.1739533989945003</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.570003</v>
+        <v>12.64967133333333</v>
       </c>
       <c r="H10">
-        <v>34.710009</v>
+        <v>37.949014</v>
       </c>
       <c r="I10">
-        <v>0.1157510681184655</v>
+        <v>0.1548364682446633</v>
       </c>
       <c r="J10">
-        <v>0.1157510681184655</v>
+        <v>0.1548364682446633</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>39.72965933333333</v>
+        <v>0.1889033333333333</v>
       </c>
       <c r="N10">
-        <v>119.188978</v>
+        <v>0.56671</v>
       </c>
       <c r="O10">
-        <v>0.3974718505964168</v>
+        <v>0.002312243868020738</v>
       </c>
       <c r="P10">
-        <v>0.3974718505964168</v>
+        <v>0.002312243868020738</v>
       </c>
       <c r="Q10">
-        <v>459.6722776756446</v>
+        <v>2.389565080437777</v>
       </c>
       <c r="R10">
-        <v>4137.050499080801</v>
+        <v>21.50608572394</v>
       </c>
       <c r="S10">
-        <v>0.04600779125355837</v>
+        <v>0.0003580196742447104</v>
       </c>
       <c r="T10">
-        <v>0.04600779125355838</v>
+        <v>0.0003580196742447106</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,46 +1092,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.570003</v>
+        <v>12.64967133333333</v>
       </c>
       <c r="H11">
-        <v>34.710009</v>
+        <v>37.949014</v>
       </c>
       <c r="I11">
-        <v>0.1157510681184655</v>
+        <v>0.1548364682446633</v>
       </c>
       <c r="J11">
-        <v>0.1157510681184655</v>
+        <v>0.1548364682446633</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.01585733333333333</v>
+        <v>29.49604666666667</v>
       </c>
       <c r="N11">
-        <v>0.047572</v>
+        <v>88.48814</v>
       </c>
       <c r="O11">
-        <v>0.0001586432839165107</v>
+        <v>0.3610420834422555</v>
       </c>
       <c r="P11">
-        <v>0.0001586432839165107</v>
+        <v>0.3610420834422555</v>
       </c>
       <c r="Q11">
-        <v>0.1834693942386667</v>
+        <v>373.1152959659955</v>
       </c>
       <c r="R11">
-        <v>1.651224548148</v>
+        <v>3358.03766369396</v>
       </c>
       <c r="S11">
-        <v>1.836312956315708E-05</v>
+        <v>0.05590248108789386</v>
       </c>
       <c r="T11">
-        <v>1.836312956315708E-05</v>
+        <v>0.05590248108789388</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,16 +1154,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.570003</v>
+        <v>12.64967133333333</v>
       </c>
       <c r="H12">
-        <v>34.710009</v>
+        <v>37.949014</v>
       </c>
       <c r="I12">
-        <v>0.1157510681184655</v>
+        <v>0.1548364682446633</v>
       </c>
       <c r="J12">
-        <v>0.1157510681184655</v>
+        <v>0.1548364682446633</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1172,28 +1172,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.570003</v>
+        <v>12.64967133333333</v>
       </c>
       <c r="N12">
-        <v>34.710009</v>
+        <v>37.949014</v>
       </c>
       <c r="O12">
-        <v>0.1157510681184655</v>
+        <v>0.1548364682446633</v>
       </c>
       <c r="P12">
-        <v>0.1157510681184655</v>
+        <v>0.1548364682446633</v>
       </c>
       <c r="Q12">
-        <v>133.864969420009</v>
+        <v>160.0141848413551</v>
       </c>
       <c r="R12">
-        <v>1204.784724780081</v>
+        <v>1440.127663572196</v>
       </c>
       <c r="S12">
-        <v>0.01339830977056563</v>
+        <v>0.02397433189848062</v>
       </c>
       <c r="T12">
-        <v>0.01339830977056564</v>
+        <v>0.02397433189848063</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,16 +1216,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.570003</v>
+        <v>12.64967133333333</v>
       </c>
       <c r="H13">
-        <v>34.710009</v>
+        <v>37.949014</v>
       </c>
       <c r="I13">
-        <v>0.1157510681184655</v>
+        <v>0.1548364682446633</v>
       </c>
       <c r="J13">
-        <v>0.1157510681184655</v>
+        <v>0.1548364682446633</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1234,28 +1234,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>48.64038733333334</v>
+        <v>39.36235533333333</v>
       </c>
       <c r="N13">
-        <v>145.921162</v>
+        <v>118.087066</v>
       </c>
       <c r="O13">
-        <v>0.4866184380012012</v>
+        <v>0.4818092044450604</v>
       </c>
       <c r="P13">
-        <v>0.4866184380012013</v>
+        <v>0.4818092044450604</v>
       </c>
       <c r="Q13">
-        <v>562.7694273678287</v>
+        <v>497.9208578725471</v>
       </c>
       <c r="R13">
-        <v>5064.924846310459</v>
+        <v>4481.287720852923</v>
       </c>
       <c r="S13">
-        <v>0.05632660396477832</v>
+        <v>0.07460163558404408</v>
       </c>
       <c r="T13">
-        <v>0.05632660396477832</v>
+        <v>0.07460163558404409</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,46 +1278,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>48.64038733333334</v>
+        <v>39.36235533333333</v>
       </c>
       <c r="H14">
-        <v>145.921162</v>
+        <v>118.087066</v>
       </c>
       <c r="I14">
-        <v>0.4866184380012012</v>
+        <v>0.4818092044450604</v>
       </c>
       <c r="J14">
-        <v>0.4866184380012013</v>
+        <v>0.4818092044450604</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>39.72965933333333</v>
+        <v>0.1889033333333333</v>
       </c>
       <c r="N14">
-        <v>119.188978</v>
+        <v>0.56671</v>
       </c>
       <c r="O14">
-        <v>0.3974718505964168</v>
+        <v>0.002312243868020738</v>
       </c>
       <c r="P14">
-        <v>0.3974718505964168</v>
+        <v>0.002312243868020738</v>
       </c>
       <c r="Q14">
-        <v>1932.466018594715</v>
+        <v>7.435680130317778</v>
       </c>
       <c r="R14">
-        <v>17392.19416735243</v>
+        <v>66.92112117286</v>
       </c>
       <c r="S14">
-        <v>0.1934171310866752</v>
+        <v>0.001114060378534041</v>
       </c>
       <c r="T14">
-        <v>0.1934171310866752</v>
+        <v>0.001114060378534041</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,46 +1340,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>48.64038733333334</v>
+        <v>39.36235533333333</v>
       </c>
       <c r="H15">
-        <v>145.921162</v>
+        <v>118.087066</v>
       </c>
       <c r="I15">
-        <v>0.4866184380012012</v>
+        <v>0.4818092044450604</v>
       </c>
       <c r="J15">
-        <v>0.4866184380012013</v>
+        <v>0.4818092044450604</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.01585733333333333</v>
+        <v>29.49604666666667</v>
       </c>
       <c r="N15">
-        <v>0.047572</v>
+        <v>88.48814</v>
       </c>
       <c r="O15">
-        <v>0.0001586432839165107</v>
+        <v>0.3610420834422555</v>
       </c>
       <c r="P15">
-        <v>0.0001586432839165107</v>
+        <v>0.3610420834422555</v>
       </c>
       <c r="Q15">
-        <v>0.7713068354071112</v>
+        <v>1161.033869821916</v>
       </c>
       <c r="R15">
-        <v>6.941761518664001</v>
+        <v>10449.30482839724</v>
       </c>
       <c r="S15">
-        <v>7.719874701883351E-05</v>
+        <v>0.1739533989945002</v>
       </c>
       <c r="T15">
-        <v>7.719874701883353E-05</v>
+        <v>0.1739533989945003</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,16 +1402,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>48.64038733333334</v>
+        <v>39.36235533333333</v>
       </c>
       <c r="H16">
-        <v>145.921162</v>
+        <v>118.087066</v>
       </c>
       <c r="I16">
-        <v>0.4866184380012012</v>
+        <v>0.4818092044450604</v>
       </c>
       <c r="J16">
-        <v>0.4866184380012013</v>
+        <v>0.4818092044450604</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1420,28 +1420,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.570003</v>
+        <v>12.64967133333333</v>
       </c>
       <c r="N16">
-        <v>34.710009</v>
+        <v>37.949014</v>
       </c>
       <c r="O16">
-        <v>0.1157510681184655</v>
+        <v>0.1548364682446633</v>
       </c>
       <c r="P16">
-        <v>0.1157510681184655</v>
+        <v>0.1548364682446633</v>
       </c>
       <c r="Q16">
-        <v>562.7694273678287</v>
+        <v>497.9208578725471</v>
       </c>
       <c r="R16">
-        <v>5064.924846310459</v>
+        <v>4481.287720852923</v>
       </c>
       <c r="S16">
-        <v>0.05632660396477832</v>
+        <v>0.07460163558404408</v>
       </c>
       <c r="T16">
-        <v>0.05632660396477832</v>
+        <v>0.07460163558404409</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,16 +1464,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>48.64038733333334</v>
+        <v>39.36235533333333</v>
       </c>
       <c r="H17">
-        <v>145.921162</v>
+        <v>118.087066</v>
       </c>
       <c r="I17">
-        <v>0.4866184380012012</v>
+        <v>0.4818092044450604</v>
       </c>
       <c r="J17">
-        <v>0.4866184380012013</v>
+        <v>0.4818092044450604</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1482,28 +1482,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>48.64038733333334</v>
+        <v>39.36235533333333</v>
       </c>
       <c r="N17">
-        <v>145.921162</v>
+        <v>118.087066</v>
       </c>
       <c r="O17">
-        <v>0.4866184380012012</v>
+        <v>0.4818092044450604</v>
       </c>
       <c r="P17">
-        <v>0.4866184380012013</v>
+        <v>0.4818092044450604</v>
       </c>
       <c r="Q17">
-        <v>2365.887279936694</v>
+        <v>1549.395017387595</v>
       </c>
       <c r="R17">
-        <v>21292.98551943025</v>
+        <v>13944.55515648835</v>
       </c>
       <c r="S17">
-        <v>0.2367975042027289</v>
+        <v>0.232140109487982</v>
       </c>
       <c r="T17">
-        <v>0.236797504202729</v>
+        <v>0.232140109487982</v>
       </c>
     </row>
   </sheetData>
